--- a/FINAL FACTORS PA Edit.xlsx
+++ b/FINAL FACTORS PA Edit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhaygoel/GoogleDrive/work/Puja/regression/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhaygoel/GoogleDrive/work/Puja/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{935BDF42-3E26-6849-9EBE-1D71E6C28F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB852C9A-252C-7C4C-A068-4DF9A9A4D12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="760" windowWidth="28960" windowHeight="18260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
   <si>
     <t>S.No.</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Heir</t>
-  </si>
-  <si>
-    <t>Age of CEO when resigned</t>
   </si>
   <si>
     <t>Tenure of Resigning CEO</t>
@@ -547,7 +544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -633,7 +636,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyAlignment="1">
@@ -648,9 +651,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
@@ -669,6 +669,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -986,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1001,14 +1007,13 @@
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="38.83203125" customWidth="1"/>
+    <col min="10" max="10" width="31.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1021,7 +1026,7 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1030,39 +1035,36 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="3">
         <v>0</v>
       </c>
@@ -1070,37 +1072,34 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="I2" s="3">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
         <v>52.6</v>
       </c>
-      <c r="L2" s="11">
+      <c r="K2" s="10">
         <v>-6.2541729000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
@@ -1108,37 +1107,34 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
         <v>66.040000000000006</v>
       </c>
-      <c r="L3" s="11">
+      <c r="K3" s="10">
         <v>9.1399999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
@@ -1146,37 +1142,34 @@
         <v>1</v>
       </c>
       <c r="H4" s="3">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I4" s="3">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3">
         <v>50.38</v>
       </c>
-      <c r="L4" s="11">
+      <c r="K4" s="10">
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F5" s="3">
         <v>1</v>
       </c>
@@ -1184,37 +1177,34 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
         <v>60.94</v>
       </c>
-      <c r="L5" s="12">
+      <c r="K5" s="11">
         <v>-0.2177</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
@@ -1222,37 +1212,34 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="I6" s="3">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3">
         <v>28.42</v>
       </c>
-      <c r="L6" s="12">
+      <c r="K6" s="11">
         <v>0.10630000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
@@ -1260,37 +1247,34 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
         <v>38.74</v>
       </c>
-      <c r="L7" s="12">
+      <c r="K7" s="11">
         <v>9.1600000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -1298,37 +1282,34 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I8" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3">
         <v>52.18</v>
       </c>
-      <c r="L8" s="12">
+      <c r="K8" s="11">
         <v>-0.35189999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -1336,37 +1317,34 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I9" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
         <v>41.67</v>
       </c>
-      <c r="L9" s="11">
+      <c r="K9" s="10">
         <v>0.22750000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
@@ -1374,37 +1352,34 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I10" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
         <v>62.72</v>
       </c>
-      <c r="L10" s="13">
+      <c r="K10" s="12">
         <v>-2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
@@ -1412,37 +1387,34 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="I11" s="3">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
         <v>13.25</v>
       </c>
-      <c r="L11" s="13">
+      <c r="K11" s="12">
         <v>-0.49690000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
@@ -1450,36 +1422,33 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I12" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
         <v>32.159999999999997</v>
       </c>
-      <c r="L12" s="13">
+      <c r="K12" s="12">
         <v>-0.35120000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1487,36 +1456,35 @@
       <c r="G13" s="3">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>25</v>
+      </c>
       <c r="I13" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
         <v>36.25</v>
       </c>
-      <c r="L13" s="13">
+      <c r="K13" s="12">
         <v>-0.1202</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
@@ -1524,36 +1492,33 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I14" s="3">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
         <v>72.89</v>
       </c>
-      <c r="L14" s="13">
+      <c r="K14" s="12">
         <v>-0.2908</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -1565,34 +1530,31 @@
         <v>64</v>
       </c>
       <c r="I15" s="3">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3">
         <v>25.94</v>
       </c>
-      <c r="L15" s="13">
+      <c r="K15" s="12">
         <v>-2.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F16" s="4">
         <v>1</v>
       </c>
@@ -1600,36 +1562,33 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
         <v>72.3</v>
       </c>
-      <c r="L16" s="13">
+      <c r="K16" s="12">
         <v>-9.9199999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -1638,36 +1597,33 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="I17" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
         <v>65.459999999999994</v>
       </c>
-      <c r="L17" s="13">
+      <c r="K17" s="12">
         <v>-0.47820000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1676,37 +1632,34 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I18" s="3">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3">
         <v>39.979999999999997</v>
       </c>
-      <c r="L18" s="13">
+      <c r="K18" s="12">
         <v>0.1444</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
@@ -1714,36 +1667,33 @@
         <v>0</v>
       </c>
       <c r="H19" s="3">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I19" s="3">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
         <v>62.1</v>
       </c>
-      <c r="L19" s="13">
+      <c r="K19" s="12">
         <v>1.83E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="35.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1752,36 +1702,33 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I20" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
         <v>54.51</v>
       </c>
-      <c r="L20" s="13">
+      <c r="K20" s="12">
         <v>-0.49370000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1790,36 +1737,33 @@
         <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I21" s="3">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
         <v>39.61</v>
       </c>
-      <c r="L21" s="13">
+      <c r="K21" s="12">
         <v>-0.2001</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1828,37 +1772,34 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
         <v>51.32</v>
       </c>
-      <c r="L22" s="13">
+      <c r="K22" s="12">
         <v>-0.76790000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F23" s="4">
         <v>1</v>
       </c>
@@ -1866,37 +1807,34 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="I23" s="3">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3">
         <v>47.94</v>
       </c>
-      <c r="L23" s="13">
+      <c r="K23" s="12">
         <v>-0.81599999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1904,36 +1842,33 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I24" s="3">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
         <v>66.75</v>
       </c>
-      <c r="L24" s="13">
+      <c r="K24" s="12">
         <v>6.9800000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -1942,36 +1877,33 @@
         <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="I25" s="3">
-        <v>70</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
         <v>74.069999999999993</v>
       </c>
-      <c r="L25" s="13">
+      <c r="K25" s="12">
         <v>9.0200000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1980,37 +1912,34 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I26" s="3">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
         <v>41.59</v>
       </c>
-      <c r="L26" s="13">
+      <c r="K26" s="12">
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -2018,36 +1947,33 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I27" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
         <v>16.5</v>
       </c>
-      <c r="L27" s="13">
+      <c r="K27" s="12">
         <v>-0.22270000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" s="3">
         <v>0</v>
@@ -2056,37 +1982,34 @@
         <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="I28" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
         <v>74</v>
       </c>
-      <c r="L28" s="13">
+      <c r="K28" s="12">
         <v>-0.46529999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -2094,36 +2017,33 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="I29" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
         <v>38.85</v>
       </c>
-      <c r="L29" s="13">
+      <c r="K29" s="12">
         <v>0.33639999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
@@ -2132,37 +2052,34 @@
         <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I30" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
         <v>75</v>
       </c>
-      <c r="L30" s="13">
+      <c r="K30" s="12">
         <v>-0.82430000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
@@ -2170,37 +2087,34 @@
         <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I31" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
         <v>29.6</v>
       </c>
-      <c r="L31" s="13">
+      <c r="K31" s="12">
         <v>0.42630000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2208,37 +2122,34 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I32" s="3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
         <v>51.26</v>
       </c>
-      <c r="L32" s="13">
+      <c r="K32" s="12">
         <v>-0.20749999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2246,37 +2157,34 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I33" s="3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
         <v>74.86</v>
       </c>
-      <c r="L33" s="13">
+      <c r="K33" s="12">
         <v>-0.36749999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F34" s="3">
         <v>1</v>
       </c>
@@ -2284,37 +2192,34 @@
         <v>1</v>
       </c>
       <c r="H34" s="3">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="I34" s="3">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
         <v>16.45</v>
       </c>
-      <c r="L34" s="13">
+      <c r="K34" s="12">
         <v>0.1273</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
@@ -2322,37 +2227,34 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I35" s="3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
         <v>74.989999999999995</v>
       </c>
-      <c r="L35" s="13">
+      <c r="K35" s="12">
         <v>-2.2755999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F36" s="3">
         <v>0</v>
       </c>
@@ -2360,37 +2262,34 @@
         <v>0</v>
       </c>
       <c r="H36" s="3">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="I36" s="3">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
         <v>61.9</v>
       </c>
-      <c r="L36" s="13">
+      <c r="K36" s="12">
         <v>0.15240000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
@@ -2398,37 +2297,34 @@
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="I37" s="3">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
-        <v>0</v>
-      </c>
-      <c r="K37" s="3">
         <v>59.64</v>
       </c>
-      <c r="L37" s="13">
+      <c r="K37" s="12">
         <v>0.23380000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
@@ -2436,36 +2332,33 @@
         <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="I38" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3">
         <v>36.17</v>
       </c>
-      <c r="L38" s="13">
+      <c r="K38" s="12">
         <v>-0.46689999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -2474,36 +2367,33 @@
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I39" s="3">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3">
         <v>74.59</v>
       </c>
-      <c r="L39" s="13">
+      <c r="K39" s="12">
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="25.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
@@ -2512,36 +2402,33 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I40" s="3">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3">
         <v>55.62</v>
       </c>
-      <c r="L40" s="13">
+      <c r="K40" s="12">
         <v>-0.1196</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2553,15 +2440,12 @@
         <v>41</v>
       </c>
       <c r="I41" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
         <v>41.48</v>
       </c>
-      <c r="L41" s="13">
+      <c r="K41" s="12">
         <v>-0.3372</v>
       </c>
     </row>
